--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6626C0C9-87F1-47DD-827D-D1FADA735EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1AC209-16CB-4162-AB1B-140EBDE2B6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -556,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAEBA02-6705-4319-AF73-D3BBE4403DF1}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -781,4 +782,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A2D295-71C9-4B81-B9FA-67544E684AEA}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>SUM(A1:A5)</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1AC209-16CB-4162-AB1B-140EBDE2B6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46409DE-4100-4786-9EFB-71C9550985B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,13 +180,50 @@
   <si>
     <t>131***1116</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=SUM(A1:A5)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +238,29 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -231,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,6 +300,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,44 +864,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A2D295-71C9-4B81-B9FA-67544E684AEA}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>SUM(A1:A5)</f>
-        <v>15</v>
-      </c>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>0.87361111111111101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.87361111111111101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46409DE-4100-4786-9EFB-71C9550985B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DACE1A-E1E4-4DC8-983B-37DC9D1A9048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,12 +219,130 @@
   <si>
     <t>A6</t>
   </si>
+  <si>
+    <t>ABCD-EFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截取左侧开始的前4个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=LEFT(A1,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截取右侧开始的前3个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=RIGHT(A1,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从中间第4个字符开始，截取后3个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=MID(A1,4,3)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回"-"在数字中字符的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=FIND("-",A1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回"-"字符前的所有字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=LEFT(A1,FIND("-",A1)-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回"-"字符前3位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=MID(A1,FIND("-",A1)-3,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回"-"字符后的所有字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=RIGHT(A1,FIND("-",A1)-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回"-"字符后2位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=MID(A1,FIND("-",A1)+1,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将科学计数的数值改为文本格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=""&amp;A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除单元格内的隐藏双引号和空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=""&amp;(VALUE(CLEAN(A1)))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123***789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算单元格内特定符号的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=LEN(A1)-LEN(SUBSTITUTE(A1,"*",""))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +381,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -291,7 +418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,6 +444,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A2D295-71C9-4B81-B9FA-67544E684AEA}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -962,4 +1095,232 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="9" t="str">
+        <f>LEFT(A1,4)</f>
+        <v>ABCD</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="9" t="str">
+        <f>RIGHT(A1,3)</f>
+        <v>EFG</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f>MID(A1,4,3)</f>
+        <v>D-E</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <f>FIND("-",A12)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="str">
+        <f>LEFT(A1,FIND("-",A1)-1)</f>
+        <v>ABCD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="str">
+        <f>MID(A12,FIND("-",A12)-3,3)</f>
+        <v>BCD</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="str">
+        <f>RIGHT(A1,FIND("-",A1)-2)</f>
+        <v>EFG</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="str">
+        <f>MID(A1,FIND("-",A1)+1,2)</f>
+        <v>EF</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>123456789123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="str">
+        <f>""&amp;A21</f>
+        <v>123456789123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="str">
+        <f>""&amp;(VALUE(CLEAN(A21)))</f>
+        <v>123456789123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26">
+        <f>LEN(A26)-LEN(SUBSTITUTE(A26,"*",""))</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DACE1A-E1E4-4DC8-983B-37DC9D1A9048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B03E3C-AE6C-43EF-BA29-42A6C1516DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
@@ -418,7 +418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,6 +450,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1113,12 +1119,12 @@
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1132,7 +1138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>ABCD</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>EFG</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>D-E</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1195,12 +1201,12 @@
       <c r="C12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="11">
         <f>FIND("-",A12)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>57</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>ABCD</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>59</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>BCD</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>61</v>
       </c>
@@ -1235,8 +1241,10 @@
         <f>RIGHT(A1,FIND("-",A1)-2)</f>
         <v>EFG</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H15" s="12"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>63</v>
       </c>
@@ -1272,7 +1280,7 @@
       <c r="C21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="11" t="str">
         <f>""&amp;A21</f>
         <v>123456789123</v>
       </c>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B03E3C-AE6C-43EF-BA29-42A6C1516DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C59021-BF47-4A07-A898-F7A750255727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,6 +335,17 @@
   </si>
   <si>
     <t>=LEN(A1)-LEN(SUBSTITUTE(A1,"*",""))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费50元</t>
+  </si>
+  <si>
+    <t>=MIDB(A1,SEARCHB("?",A1),2*LEN(A1)-LENB(A1))*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取中文字符串中的（第一个）数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,6 +373,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1105,23 +1117,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A27" sqref="A27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1150,7 +1162,7 @@
       </c>
       <c r="D4" s="9" t="str">
         <f>LEFT(A1,4)</f>
-        <v>ABCD</v>
+        <v>话费50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1162,7 +1174,7 @@
       </c>
       <c r="D5" s="9" t="str">
         <f>RIGHT(A1,3)</f>
-        <v>EFG</v>
+        <v>50元</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1174,156 +1186,188 @@
       </c>
       <c r="D6" s="9" t="str">
         <f>MID(A1,4,3)</f>
-        <v>D-E</v>
+        <v>0元</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="11">
+        <f>FIND("-",A11)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="11">
-        <f>FIND("-",A12)</f>
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="D12" t="e">
+        <f>LEFT(A1,FIND("-",A1)-1)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" t="str">
-        <f>LEFT(A1,FIND("-",A1)-1)</f>
-        <v>ABCD</v>
+        <f>MID(A11,FIND("-",A11)-3,3)</f>
+        <v>BCD</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="str">
-        <f>MID(A12,FIND("-",A12)-3,3)</f>
-        <v>BCD</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D14" t="e">
+        <f>RIGHT(A1,FIND("-",A1)-2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="str">
-        <f>RIGHT(A1,FIND("-",A1)-2)</f>
-        <v>EFG</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D15" t="e">
         <f>MID(A1,FIND("-",A1)+1,2)</f>
-        <v>EF</v>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20">
+        <v>123456789123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="11" t="str">
+        <f>""&amp;A20</f>
+        <v>123456789123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="str">
+        <f>""&amp;(VALUE(CLEAN(A20)))</f>
+        <v>123456789123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>47</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D24" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>123456789123</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="11" t="str">
-        <f>""&amp;A21</f>
-        <v>123456789123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="str">
-        <f>""&amp;(VALUE(CLEAN(A21)))</f>
-        <v>123456789123</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25">
+        <f>LEN(A25)-LEN(SUBSTITUTE(A25,"*",""))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>47</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26">
-        <f>LEN(A26)-LEN(SUBSTITUTE(A26,"*",""))</f>
-        <v>3</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28">
+        <f>MIDB(A1,SEARCHB("?",A1),2*LEN(A1)-LENB(A1))*1</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C59021-BF47-4A07-A898-F7A750255727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFC8952-A9E3-4DE0-9E78-42DF80BD032A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1283,7 +1283,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="11">
         <v>123456789123</v>
       </c>
       <c r="B20" t="s">

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFC8952-A9E3-4DE0-9E78-42DF80BD032A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C74374-806A-4713-861B-5D648DC94F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +346,67 @@
   </si>
   <si>
     <t>提取中文字符串中的（第一个）数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>公式</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=TEXT(MID(A1,7,8),"00-00-00")</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据身份证号提取生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据身份证号提取性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=IF(MOD(MID(A1,17,1),2),"男","女")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据身份证号计算年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=DATEDIF(TEXT(MID(A1,7,8),"00-00-00"),TODAY(),"y")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>329297198001019876</t>
+  </si>
+  <si>
+    <t>329297198001019876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断同一列中有无重复的身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=IF(COUNTIF(A:A,""&amp;A1)&gt;1,"重复","")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,6 +529,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,23 +1181,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>72</v>
+      <c r="A1" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1162,7 +1226,7 @@
       </c>
       <c r="D4" s="9" t="str">
         <f>LEFT(A1,4)</f>
-        <v>话费50</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1174,7 +1238,7 @@
       </c>
       <c r="D5" s="9" t="str">
         <f>RIGHT(A1,3)</f>
-        <v>50元</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1186,7 +1250,7 @@
       </c>
       <c r="D6" s="9" t="str">
         <f>MID(A1,4,3)</f>
-        <v>0元</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1367,7 +1431,72 @@
       </c>
       <c r="D28">
         <f>MIDB(A1,SEARCHB("?",A1),2*LEN(A1)-LENB(A1))*1</f>
-        <v>50</v>
+        <v>3.2929719800101901E+17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="str">
+        <f>TEXT(MID(A1,7,8),"00-00-00")</f>
+        <v>1980-01-01</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="str">
+        <f>IF(MOD(MID(A1,17,1),2),"男","女")</f>
+        <v>男</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34">
+        <f ca="1">DATEDIF(TEXT(MID(A1,7,8),"00-00-00"),TODAY(),"y")</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="str">
+        <f>IF(COUNTIF(A:A,""&amp;A1)&gt;1,"重复","")</f>
+        <v>重复</v>
       </c>
     </row>
   </sheetData>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C74374-806A-4713-861B-5D648DC94F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8495B987-DC5C-45E8-B58A-10D1879A7477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8495B987-DC5C-45E8-B58A-10D1879A7477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02B6A1-A149-4CBB-8908-632723A6D3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$7</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cindy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Eason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Zhang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,47 +123,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheet1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>133***1112</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>135***1113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>137***1114</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -407,6 +363,30 @@
   </si>
   <si>
     <t>=IF(COUNTIF(A:A,""&amp;A1)&gt;1,"重复","")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Betty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -485,22 +465,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,6 +593,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,225 +932,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAEBA02-6705-4319-AF73-D3BBE4403DF1}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1">
+        <f>COUNTBLANK(F1:F7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>12301</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>12302</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>12303</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>12304</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>12305</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>12306</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="15">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>12301</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="F7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>12302</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>12303</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>12304</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>12305</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>12306</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="H7" s="16">
         <v>95</v>
       </c>
     </row>
@@ -1078,6 +1140,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152390E9-FB71-433B-B484-532B244D41D3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A2D295-71C9-4B81-B9FA-67544E684AEA}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -1091,71 +1166,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>38</v>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>37</v>
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>43940</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>43940</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>0.87361111111111101</v>
       </c>
     </row>
@@ -1165,12 +1240,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>43940</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="8"/>
+      <c r="E15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1179,11 +1254,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1196,98 +1271,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>86</v>
+      <c r="A1" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="9" t="str">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="str">
         <f>LEFT(A1,4)</f>
         <v>3292</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="9" t="str">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="str">
         <f>RIGHT(A1,3)</f>
         <v>876</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="9" t="str">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7" t="str">
         <f>MID(A1,4,3)</f>
         <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="11">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="9">
         <f>FIND("-",A11)</f>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D12" t="e">
         <f>LEFT(A1,FIND("-",A1)-1)</f>
@@ -1296,10 +1371,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D13" t="str">
         <f>MID(A11,FIND("-",A11)-3,3)</f>
@@ -1308,24 +1383,24 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="D14" t="e">
         <f>RIGHT(A1,FIND("-",A1)-2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="D15" t="e">
         <f>MID(A1,FIND("-",A1)+1,2)</f>
@@ -1334,39 +1409,39 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="9">
         <v>123456789123</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="11" t="str">
+        <v>53</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="9" t="str">
         <f>""&amp;A20</f>
         <v>123456789123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D21" t="str">
         <f>""&amp;(VALUE(CLEAN(A20)))</f>
@@ -1375,27 +1450,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D25">
         <f>LEN(A25)-LEN(SUBSTITUTE(A25,"*",""))</f>
@@ -1403,31 +1478,31 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="9"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D28">
         <f>MIDB(A1,SEARCHB("?",A1),2*LEN(A1)-LENB(A1))*1</f>
@@ -1436,27 +1511,27 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>85</v>
+      <c r="A32" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>79</v>
+        <v>68</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D32" t="str">
         <f>TEXT(MID(A1,7,8),"00-00-00")</f>
@@ -1465,10 +1540,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="D33" t="str">
         <f>IF(MOD(MID(A1,17,1),2),"男","女")</f>
@@ -1477,10 +1552,10 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>84</v>
+        <v>71</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="D34">
         <f ca="1">DATEDIF(TEXT(MID(A1,7,8),"00-00-00"),TODAY(),"y")</f>
@@ -1489,10 +1564,10 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D35" t="str">
         <f>IF(COUNTIF(A:A,""&amp;A1)&gt;1,"重复","")</f>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02B6A1-A149-4CBB-8908-632723A6D3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522B7E0A-9B63-4AB8-AAB6-747951417182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$7</definedName>
@@ -934,7 +934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAEBA02-6705-4319-AF73-D3BBE4403DF1}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -974,8 +976,8 @@
         <v>20</v>
       </c>
       <c r="I1">
-        <f>COUNTBLANK(F1:F7)</f>
-        <v>1</v>
+        <f>COUNTIF(B1:B7,"d*")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1140,24 +1142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152390E9-FB71-433B-B484-532B244D41D3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A2D295-71C9-4B81-B9FA-67544E684AEA}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -1579,4 +1568,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152390E9-FB71-433B-B484-532B244D41D3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522B7E0A-9B63-4AB8-AAB6-747951417182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E129B6-25BE-4361-9CFA-7DE46C44C3FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,10 +354,6 @@
     <t>329297198001019876</t>
   </si>
   <si>
-    <t>329297198001019876</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>判断同一列中有无重复的身份证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,6 +383,106 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=CONCATENATE(A1,"-",B1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=A1&amp;"-"&amp;B1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>abcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分大小写的判断：=EXACT(A1,B1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不区分大小写判断：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=A1=B1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小明12222222222</t>
+  </si>
+  <si>
+    <t>小明12222222222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取中文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=LEFT(A1,LENB(A1)-LEN(A1))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王小五15555555555</t>
+  </si>
+  <si>
+    <t>=MID(A1,LENB(A1)-LEN(A1)+1,LENB(A1))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAEBA02-6705-4319-AF73-D3BBE4403DF1}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -952,7 +1048,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>4</v>
@@ -961,7 +1057,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>0</v>
@@ -976,8 +1072,8 @@
         <v>20</v>
       </c>
       <c r="I1">
-        <f>COUNTIF(B1:B7,"d*")</f>
-        <v>2</v>
+        <f>SUMPRODUCT(1/COUNTIF(D1:D7,D1:D7))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -991,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1">
         <v>21</v>
@@ -1011,13 +1107,13 @@
         <v>12302</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1">
         <v>22</v>
@@ -1043,7 +1139,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1">
         <v>23</v>
@@ -1069,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1">
         <v>24</v>
@@ -1093,7 +1189,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1">
         <v>25</v>
@@ -1113,13 +1209,13 @@
         <v>12306</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="15">
         <v>26</v>
@@ -1146,7 +1242,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1245,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1357,15 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>74</v>
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1290,7 +1394,7 @@
       </c>
       <c r="D4" s="7" t="str">
         <f>LEFT(A1,4)</f>
-        <v>3292</v>
+        <v>小明12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1302,7 +1406,7 @@
       </c>
       <c r="D5" s="7" t="str">
         <f>RIGHT(A1,3)</f>
-        <v>876</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1314,7 +1418,7 @@
       </c>
       <c r="D6" s="7" t="str">
         <f>MID(A1,4,3)</f>
-        <v>297</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1495,7 +1599,7 @@
       </c>
       <c r="D28">
         <f>MIDB(A1,SEARCHB("?",A1),2*LEN(A1)-LENB(A1))*1</f>
-        <v>3.2929719800101901E+17</v>
+        <v>12222222222</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,43 +1628,160 @@
       </c>
       <c r="D32" t="str">
         <f>TEXT(MID(A1,7,8),"00-00-00")</f>
-        <v>1980-01-01</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+        <v>222-22-22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D33" t="e">
         <f>IF(MOD(MID(A1,17,1),2),"男","女")</f>
-        <v>男</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="e">
         <f ca="1">DATEDIF(TEXT(MID(A1,7,8),"00-00-00"),TODAY(),"y")</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="D35" t="str">
         <f>IF(COUNTIF(A:A,""&amp;A1)&gt;1,"重复","")</f>
         <v>重复</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="str">
+        <f>A1&amp;"-"&amp;B1</f>
+        <v>小明12222222222-abcd</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="str">
+        <f>CONCATENATE(A1,"-",B1)</f>
+        <v>小明12222222222-abcd</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="11" t="b">
+        <f>A1=B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="7" t="b">
+        <f>EXACT(A1,B1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" t="str">
+        <f>LEFT(A1,LENB(A1)-LEN(A1))</f>
+        <v>小明</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="str">
+        <f>MID(A1,LENB(A1)-LEN(A1)+1,LENB(A1))</f>
+        <v>12222222222</v>
       </c>
     </row>
   </sheetData>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E129B6-25BE-4361-9CFA-7DE46C44C3FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822EF3B6-7D44-41B5-8ED3-D43A05FE60D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
@@ -1344,7 +1344,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:D48"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822EF3B6-7D44-41B5-8ED3-D43A05FE60D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B62696-E347-4F99-A85C-DA9F46A7E1DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,41 +139,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=SUM(A1:A5)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
   </si>
   <si>
     <t>ABCD-EFG</t>
@@ -483,6 +450,68 @@
   </si>
   <si>
     <t>公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数段</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>分数段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≤60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≤80</t>
+  </si>
+  <si>
+    <t>≤90</t>
+  </si>
+  <si>
+    <t>≤100</t>
+  </si>
+  <si>
+    <t>≤70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;70的人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;80的人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;90的人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;100的人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,18 +692,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +729,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAEBA02-6705-4319-AF73-D3BBE4403DF1}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1044,40 +1085,46 @@
     <col min="6" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I1">
-        <f>SUMPRODUCT(1/COUNTIF(D1:D7,D1:D7))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="J1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>12301</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1087,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1">
         <v>21</v>
@@ -1098,22 +1145,29 @@
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="9">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="J2" s="1">
+        <v>60</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>12302</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1">
         <v>22</v>
@@ -1124,12 +1178,19 @@
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="9">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="J3" s="1">
+        <v>70</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>12303</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1139,7 +1200,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1">
         <v>23</v>
@@ -1150,12 +1211,19 @@
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="9">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="J4" s="1">
+        <v>80</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>12304</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1165,7 +1233,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1">
         <v>24</v>
@@ -1174,12 +1242,19 @@
       <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="J5" s="1">
+        <v>90</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>12305</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1189,7 +1264,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1">
         <v>25</v>
@@ -1200,33 +1275,39 @@
       <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="9">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="J6" s="17">
+        <v>100</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>12306</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="D7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="11">
         <v>26</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="12">
         <v>95</v>
       </c>
     </row>
@@ -1239,98 +1320,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A2D295-71C9-4B81-B9FA-67544E684AEA}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="5" width="9.77734375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12301</v>
       </c>
       <c r="B2" s="1">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18">
+        <v>70</v>
+      </c>
+      <c r="E2" s="18">
+        <f t="array" ref="E2:E5">FREQUENCY(B:B,D:D-0.1)</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>12302</v>
+      </c>
+      <c r="B3" s="1">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18">
+        <v>80</v>
+      </c>
+      <c r="E3" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="F3" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12303</v>
+      </c>
+      <c r="B4" s="1">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18">
+        <v>90</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12304</v>
+      </c>
+      <c r="B5" s="1">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18">
+        <v>100</v>
+      </c>
+      <c r="E5" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
+      <c r="F5" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>12305</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>43940</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>43940</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>0.87361111111111101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>0.87361111111111101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <v>43940</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>12306</v>
+      </c>
+      <c r="B7" s="1">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="20"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1343,7 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -1356,106 +1481,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>91</v>
+      <c r="A1" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="7" t="str">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="str">
         <f>LEFT(A1,4)</f>
         <v>小明12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="7" t="str">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="str">
         <f>RIGHT(A1,3)</f>
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="7" t="str">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="str">
         <f>MID(A1,4,3)</f>
         <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="9">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5">
         <f>FIND("-",A11)</f>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D12" t="e">
         <f>LEFT(A1,FIND("-",A1)-1)</f>
@@ -1464,10 +1589,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D13" t="str">
         <f>MID(A11,FIND("-",A11)-3,3)</f>
@@ -1476,24 +1601,24 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D14" t="e">
         <f>RIGHT(A1,FIND("-",A1)-2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D15" t="e">
         <f>MID(A1,FIND("-",A1)+1,2)</f>
@@ -1502,39 +1627,39 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="5">
         <v>123456789123</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="9" t="str">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5" t="str">
         <f>""&amp;A20</f>
         <v>123456789123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D21" t="str">
         <f>""&amp;(VALUE(CLEAN(A20)))</f>
@@ -1543,27 +1668,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D25">
         <f>LEN(A25)-LEN(SUBSTITUTE(A25,"*",""))</f>
@@ -1571,31 +1696,31 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="7"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D28">
         <f>MIDB(A1,SEARCHB("?",A1),2*LEN(A1)-LENB(A1))*1</f>
@@ -1604,27 +1729,27 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="B32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="D32" t="str">
         <f>TEXT(MID(A1,7,8),"00-00-00")</f>
@@ -1633,10 +1758,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D33" t="e">
         <f>IF(MOD(MID(A1,17,1),2),"男","女")</f>
@@ -1645,10 +1770,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D34" t="e">
         <f ca="1">DATEDIF(TEXT(MID(A1,7,8),"00-00-00"),TODAY(),"y")</f>
@@ -1657,10 +1782,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D35" t="str">
         <f>IF(COUNTIF(A:A,""&amp;A1)&gt;1,"重复","")</f>
@@ -1669,27 +1794,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D38" t="str">
         <f>A1&amp;"-"&amp;B1</f>
@@ -1697,8 +1822,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="7" t="s">
-        <v>85</v>
+      <c r="C39" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D39" t="str">
         <f>CONCATENATE(A1,"-",B1)</f>
@@ -1707,65 +1832,65 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="11" t="b">
+        <v>81</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="7" t="b">
         <f>A1=B1</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="7" t="b">
+      <c r="C43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="3" t="b">
         <f>EXACT(A1,B1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D47" t="str">
         <f>LEFT(A1,LENB(A1)-LEN(A1))</f>
@@ -1774,10 +1899,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="D48" t="str">
         <f>MID(A1,LENB(A1)-LEN(A1)+1,LENB(A1))</f>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B62696-E347-4F99-A85C-DA9F46A7E1DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E99505F-A3F6-4CA6-AF71-936FE45BBEF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="3" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="字符串" sheetId="3" r:id="rId1"/>
+    <sheet name="数值" sheetId="1" r:id="rId2"/>
+    <sheet name="频率" sheetId="2" r:id="rId3"/>
+    <sheet name="时间日期" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数值!$A$1:$H$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="138">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,38 +459,9 @@
     <t>人数</t>
   </si>
   <si>
-    <t>分数段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>≤60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>≤80</t>
-  </si>
-  <si>
-    <t>≤90</t>
-  </si>
-  <si>
-    <t>≤100</t>
-  </si>
-  <si>
-    <t>≤70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>含义</t>
   </si>
   <si>
-    <t>含义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,6 +483,152 @@
   </si>
   <si>
     <t>&lt;100的人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1范例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年/月/日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=TEXT(A1,"yyyy/mm/dd")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年-月-日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=TEXT(A1,"yyyy-mm-dd")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=TEXT(A1,"emmdd")</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>="Q"&amp;LEN(2^MONTH(A1))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年(末两位缩写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=TEXT(A1,"yyyy")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=TEXT(A1,"yy")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=TEXT(A1,"yyyy年m月")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月(英文缩写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月(英文)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=TEXT(A1,"mm")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=TEXT(A1,"mmm")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=TEXT(A1,"mmmm")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份的上中下旬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=LOOKUP(DAY(A1),{0,11,21},{"上旬","中旬","下旬"})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期(中文)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期(中文缩写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期(英文缩写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期(英文)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=TEXT(A1,"aaa")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=TEXT(A1,"aaaa")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=TEXT(A1,"ddd")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=TEXT(A1,"dddd")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,9 +851,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,6 +868,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,407 +1188,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAEBA02-6705-4319-AF73-D3BBE4403DF1}">
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>12301</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="1">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="9">
-        <v>70</v>
-      </c>
-      <c r="J2" s="1">
-        <v>60</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>12302</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="1">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="9">
-        <v>55</v>
-      </c>
-      <c r="J3" s="1">
-        <v>70</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>12303</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="1">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="9">
-        <v>91</v>
-      </c>
-      <c r="J4" s="1">
-        <v>80</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>12304</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="1">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="9">
-        <v>60</v>
-      </c>
-      <c r="J5" s="1">
-        <v>90</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>12305</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="1">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="9">
-        <v>86</v>
-      </c>
-      <c r="J6" s="17">
-        <v>100</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>12306</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="11">
-        <v>26</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="12">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A2D295-71C9-4B81-B9FA-67544E684AEA}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="5" width="9.77734375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>12301</v>
-      </c>
-      <c r="B2" s="1">
-        <v>70</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="18">
-        <v>70</v>
-      </c>
-      <c r="E2" s="18">
-        <f t="array" ref="E2:E5">FREQUENCY(B:B,D:D-0.1)</f>
-        <v>2</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>12302</v>
-      </c>
-      <c r="B3" s="1">
-        <v>55</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="18">
-        <v>80</v>
-      </c>
-      <c r="E3" s="18">
-        <v>1</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>12303</v>
-      </c>
-      <c r="B4" s="1">
-        <v>91</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="18">
-        <v>90</v>
-      </c>
-      <c r="E4" s="18">
-        <v>1</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>12304</v>
-      </c>
-      <c r="B5" s="1">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="18">
-        <v>100</v>
-      </c>
-      <c r="E5" s="18">
-        <v>2</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>12305</v>
-      </c>
-      <c r="B6" s="1">
-        <v>86</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>12306</v>
-      </c>
-      <c r="B7" s="1">
-        <v>95</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="20"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="22"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -1916,16 +1639,581 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152390E9-FB71-433B-B484-532B244D41D3}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAEBA02-6705-4319-AF73-D3BBE4403DF1}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="L1" sqref="J1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>12301</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>12302</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>12303</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>12304</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>12305</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>12306</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="11">
+        <v>26</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="12">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A2D295-71C9-4B81-B9FA-67544E684AEA}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="5" width="9.77734375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12301</v>
+      </c>
+      <c r="B2" s="1">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="17">
+        <v>70</v>
+      </c>
+      <c r="E2" s="17">
+        <f t="array" ref="E2:E5">FREQUENCY(B:B,D:D-0.1)</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>12302</v>
+      </c>
+      <c r="B3" s="1">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="17">
+        <v>80</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12303</v>
+      </c>
+      <c r="B4" s="1">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="17">
+        <v>90</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12304</v>
+      </c>
+      <c r="B5" s="1">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="17">
+        <v>100</v>
+      </c>
+      <c r="E5" s="17">
+        <v>2</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>12305</v>
+      </c>
+      <c r="B6" s="1">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>12306</v>
+      </c>
+      <c r="B7" s="1">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="19"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152390E9-FB71-433B-B484-532B244D41D3}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="23">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>43831</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="str">
+        <f>TEXT(A1,"yyyy/mm/dd")</f>
+        <v>2020/01/01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="str">
+        <f>TEXT(A1,"yyyy-mm-dd")</f>
+        <v>2020-01-01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="str">
+        <f>TEXT(A1,"emmdd")</f>
+        <v>20200101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="str">
+        <f>TEXT(A1,"yyyy年m月")</f>
+        <v>2020年1月</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" t="str">
+        <f>TEXT(A1,"yyyy")</f>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="str">
+        <f>TEXT(A1,"yy")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="str">
+        <f>"Q"&amp;LEN(2^MONTH(A1))</f>
+        <v>Q1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" t="str">
+        <f>TEXT(A1,"mm")</f>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" t="str">
+        <f>TEXT(A1,"mmm")</f>
+        <v>Jan</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" t="str">
+        <f>TEXT(A1,"mmmm")</f>
+        <v>January</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" t="str">
+        <f>LOOKUP(DAY(A1),{0,11,21},{"上旬","中旬","下旬"})</f>
+        <v>上旬</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="str">
+        <f>TEXT(A1,"aaa")</f>
+        <v>三</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" t="str">
+        <f>TEXT(A1,"aaaa")</f>
+        <v>星期三</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="str">
+        <f>TEXT(A1,"ddd")</f>
+        <v>Wed</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="str">
+        <f>TEXT(A1,"dddd")</f>
+        <v>Wednesday</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E99505F-A3F6-4CA6-AF71-936FE45BBEF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1427595F-FC4B-4551-B3AE-37F08AD3D0BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="3" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="字符串" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="131">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,36 +510,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=TEXT(A1,"yyyy/mm/dd")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年-月-日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=TEXT(A1,"yyyy-mm-dd")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=TEXT(A1,"emmdd")</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>="Q"&amp;LEN(2^MONTH(A1))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,14 +522,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=TEXT(A1,"yyyy")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=TEXT(A1,"yy")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>季度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,10 +534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=TEXT(A1,"yyyy年m月")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>月(英文缩写)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -580,26 +542,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=TEXT(A1,"mm")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=TEXT(A1,"mmm")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=TEXT(A1,"mmmm")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>月份的上中下旬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=LOOKUP(DAY(A1),{0,11,21},{"上旬","中旬","下旬"})</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>星期(中文)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -616,19 +562,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=TEXT(A1,"aaa")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=TEXT(A1,"aaaa")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=TEXT(A1,"ddd")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=TEXT(A1,"dddd")</t>
+    <t>A1范例</t>
+  </si>
+  <si>
+    <t>返回年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回星期几（2：周一从1开始）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,6 +597,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -799,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,7 +836,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1994,221 +1961,375 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152390E9-FB71-433B-B484-532B244D41D3}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D23"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="23">
+      <c r="A1" s="25">
+        <v>43831.430902777778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>43831.430902777778</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D5)</f>
+        <v>=YEAR(A1)</v>
+      </c>
+      <c r="D5">
+        <f>YEAR(A1)</f>
+        <v>2020</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:C11" ca="1" si="0">_xlfn.FORMULATEXT(D6)</f>
+        <v>=MONTH(A1)</v>
+      </c>
+      <c r="D6">
+        <f>MONTH(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=DAY(A1)</v>
+      </c>
+      <c r="D7">
+        <f>DAY(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=WEEKDAY(A1,2)</v>
+      </c>
+      <c r="D8">
+        <f>WEEKDAY(A1,2)</f>
+        <v>3</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=HOUR(A1)</v>
+      </c>
+      <c r="D9">
+        <f>HOUR(A1)</f>
+        <v>10</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=MINUTE(A1)</v>
+      </c>
+      <c r="D10">
+        <f>MINUTE(A1)</f>
+        <v>20</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=SECOND(A1)</v>
+      </c>
+      <c r="D11">
+        <f>SECOND(A1)</f>
+        <v>30</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="24">
+        <f ca="1">NOW()</f>
+        <v>43970.373703703706</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="23">
+        <f ca="1">TODAY()</f>
+        <v>43970</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
         <v>43831</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>43831</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B18" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" t="str">
+      <c r="C18" t="str">
+        <f t="shared" ref="C18:C32" ca="1" si="1">_xlfn.FORMULATEXT(D18)</f>
+        <v>=TEXT(A1,"yyyy/mm/dd")</v>
+      </c>
+      <c r="D18" t="str">
         <f>TEXT(A1,"yyyy/mm/dd")</f>
         <v>2020/01/01</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" t="str">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TEXT(A1,"yyyy-mm-dd")</v>
+      </c>
+      <c r="D19" t="str">
         <f>TEXT(A1,"yyyy-mm-dd")</f>
         <v>2020-01-01</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" t="str">
+      <c r="C20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TEXT(A1,"emmdd")</v>
+      </c>
+      <c r="D20" t="str">
         <f>TEXT(A1,"emmdd")</f>
         <v>20200101</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" t="str">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TEXT(A1,"yyyy年m月")</v>
+      </c>
+      <c r="D21" t="str">
         <f>TEXT(A1,"yyyy年m月")</f>
         <v>2020年1月</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" t="str">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TEXT(A1,"yyyy")</v>
+      </c>
+      <c r="D22" t="str">
         <f>TEXT(A1,"yyyy")</f>
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" t="str">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TEXT(A1,"yy")</v>
+      </c>
+      <c r="D23" t="str">
         <f>TEXT(A1,"yy")</f>
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" t="str">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>="Q"&amp;LEN(2^MONTH(A1))</v>
+      </c>
+      <c r="D24" t="str">
         <f>"Q"&amp;LEN(2^MONTH(A1))</f>
         <v>Q1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" t="str">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TEXT(A1,"mm")</v>
+      </c>
+      <c r="D25" t="str">
         <f>TEXT(A1,"mm")</f>
         <v>01</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" t="str">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TEXT(A1,"mmm")</v>
+      </c>
+      <c r="D26" t="str">
         <f>TEXT(A1,"mmm")</f>
         <v>Jan</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" t="str">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TEXT(A1,"mmmm")</v>
+      </c>
+      <c r="D27" t="str">
         <f>TEXT(A1,"mmmm")</f>
         <v>January</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" t="str">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=LOOKUP(DAY(A1),{0,11,21},{"上旬","中旬","下旬"})</v>
+      </c>
+      <c r="D28" t="str">
         <f>LOOKUP(DAY(A1),{0,11,21},{"上旬","中旬","下旬"})</f>
         <v>上旬</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" t="str">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TEXT(A1,"aaa")</v>
+      </c>
+      <c r="D29" t="str">
         <f>TEXT(A1,"aaa")</f>
         <v>三</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" t="str">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TEXT(A1,"aaaa")</v>
+      </c>
+      <c r="D30" t="str">
         <f>TEXT(A1,"aaaa")</f>
         <v>星期三</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" t="str">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TEXT(A1,"ddd")</v>
+      </c>
+      <c r="D31" t="str">
         <f>TEXT(A1,"ddd")</f>
         <v>Wed</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" t="str">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TEXT(A1,"dddd")</v>
+      </c>
+      <c r="D32" t="str">
         <f>TEXT(A1,"dddd")</f>
         <v>Wednesday</v>
       </c>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1427595F-FC4B-4551-B3AE-37F08AD3D0BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7060C58F-5886-466E-932B-3935161D1639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="137">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,13 +592,37 @@
     <t>返回秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>字符串转日期格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串转时间格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=TIMEVALUE(SUBSTITUTE(SUBSTITUTE(A1,"分",""),"时",":"))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10时20分</t>
+  </si>
+  <si>
+    <t>10时20分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -763,7 +787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,6 +864,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1961,23 +1997,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152390E9-FB71-433B-B484-532B244D41D3}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A35" sqref="A35:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25">
-        <v>43831.430902777778</v>
+      <c r="A1" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2067,7 +2109,7 @@
       </c>
       <c r="D9">
         <f>HOUR(A1)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -2081,7 +2123,7 @@
       </c>
       <c r="D10">
         <f>MINUTE(A1)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K10" s="5"/>
     </row>
@@ -2095,7 +2137,7 @@
       </c>
       <c r="D11">
         <f>SECOND(A1)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K11" s="5"/>
     </row>
@@ -2105,14 +2147,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43970.373703703706</v>
+        <v>43971.360718634256</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2122,7 +2164,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -2136,7 +2178,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>43831</v>
       </c>
@@ -2152,7 +2194,7 @@
         <v>2020/01/01</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>110</v>
       </c>
@@ -2165,7 +2207,7 @@
         <v>2020-01-01</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>108</v>
       </c>
@@ -2178,7 +2220,7 @@
         <v>20200101</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>115</v>
       </c>
@@ -2190,8 +2232,9 @@
         <f>TEXT(A1,"yyyy年m月")</f>
         <v>2020年1月</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>111</v>
       </c>
@@ -2204,7 +2247,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>112</v>
       </c>
@@ -2217,7 +2260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>113</v>
       </c>
@@ -2230,7 +2273,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>114</v>
       </c>
@@ -2243,7 +2286,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>116</v>
       </c>
@@ -2256,7 +2299,7 @@
         <v>Jan</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>117</v>
       </c>
@@ -2269,7 +2312,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>118</v>
       </c>
@@ -2282,7 +2325,7 @@
         <v>上旬</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>120</v>
       </c>
@@ -2295,7 +2338,7 @@
         <v>三</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>119</v>
       </c>
@@ -2308,7 +2351,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>121</v>
       </c>
@@ -2321,7 +2364,7 @@
         <v>Wed</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>122</v>
       </c>
@@ -2332,6 +2375,51 @@
       <c r="D32" t="str">
         <f>TEXT(A1,"dddd")</f>
         <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" ref="C36:C37" ca="1" si="2">_xlfn.FORMULATEXT(D36)</f>
+        <v>=DATEVALUE(A1)</v>
+      </c>
+      <c r="D36" s="23">
+        <f>DATEVALUE(A1)</f>
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="29">
+        <f>TIMEVALUE(SUBSTITUTE(SUBSTITUTE(A2,"分",""),"时",":"))</f>
+        <v>0.43055555555555558</v>
       </c>
     </row>
   </sheetData>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7060C58F-5886-466E-932B-3935161D1639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07009D52-9C80-4FFA-A482-30E6595E57CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="147">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -615,6 +615,44 @@
     <t>10时20分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>统计相差的年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计相差的月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略年、日，统计相差的月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略年，统计相差的天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略年、月，统计相差的天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1范例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计相差的天数-方法1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计相差的天数-方法2</t>
+  </si>
+  <si>
+    <t>统计相差的天数-方法3</t>
+  </si>
+  <si>
+    <t>计算日期1个月份后的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -622,7 +660,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
-    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -875,7 +913,7 @@
     <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1997,10 +2035,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152390E9-FB71-433B-B484-532B244D41D3}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:D37"/>
+      <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2013,8 +2051,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>132</v>
+      <c r="A1" s="26">
+        <v>43831</v>
+      </c>
+      <c r="B1" s="23">
+        <v>44227</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2147,14 +2188,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43971.360718634256</v>
+        <v>43972.366110648145</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2186,7 +2227,7 @@
         <v>109</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ref="C18:C32" ca="1" si="1">_xlfn.FORMULATEXT(D18)</f>
+        <f t="shared" ref="C18:C33" ca="1" si="1">_xlfn.FORMULATEXT(D18)</f>
         <v>=TEXT(A1,"yyyy/mm/dd")</v>
       </c>
       <c r="D18" t="str">
@@ -2222,204 +2263,380 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
+        <v>=DATESTRING(A1)</v>
+      </c>
+      <c r="D21" t="str">
+        <f>DATESTRING(A1)</f>
+        <v>20年01月01日</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=TEXT(A1,"yyyy年m月")</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D22" t="str">
         <f>TEXT(A1,"yyyy年m月")</f>
         <v>2020年1月</v>
       </c>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>111</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TEXT(A1,"yyyy")</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D23" t="str">
         <f>TEXT(A1,"yyyy")</f>
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>112</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TEXT(A1,"yy")</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D24" t="str">
         <f>TEXT(A1,"yy")</f>
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>113</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>="Q"&amp;LEN(2^MONTH(A1))</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D25" t="str">
         <f>"Q"&amp;LEN(2^MONTH(A1))</f>
         <v>Q1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>114</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TEXT(A1,"mm")</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D26" t="str">
         <f>TEXT(A1,"mm")</f>
         <v>01</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>116</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TEXT(A1,"mmm")</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D27" t="str">
         <f>TEXT(A1,"mmm")</f>
         <v>Jan</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TEXT(A1,"mmmm")</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D28" t="str">
         <f>TEXT(A1,"mmmm")</f>
         <v>January</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=LOOKUP(DAY(A1),{0,11,21},{"上旬","中旬","下旬"})</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D29" t="str">
         <f>LOOKUP(DAY(A1),{0,11,21},{"上旬","中旬","下旬"})</f>
         <v>上旬</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>120</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TEXT(A1,"aaa")</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D30" t="str">
         <f>TEXT(A1,"aaa")</f>
         <v>三</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>119</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TEXT(A1,"aaaa")</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D31" t="str">
         <f>TEXT(A1,"aaaa")</f>
         <v>星期三</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>121</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TEXT(A1,"ddd")</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D32" t="str">
         <f>TEXT(A1,"ddd")</f>
         <v>Wed</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>122</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TEXT(A1,"dddd")</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D33" t="str">
         <f>TEXT(A1,"dddd")</f>
         <v>Wednesday</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>123</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>57</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>58</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>131</v>
       </c>
-      <c r="C36" t="str">
-        <f t="shared" ref="C36:C37" ca="1" si="2">_xlfn.FORMULATEXT(D36)</f>
+      <c r="C37" t="str">
+        <f t="shared" ref="C37" ca="1" si="2">_xlfn.FORMULATEXT(D37)</f>
         <v>=DATEVALUE(A1)</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D37" s="23" t="e">
         <f>DATEVALUE(A1)</f>
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D38" s="29">
         <f>TIMEVALUE(SUBSTITUTE(SUBSTITUTE(A2,"分",""),"时",":"))</f>
         <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>43831</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D42)</f>
+        <v>=B1-A1</v>
+      </c>
+      <c r="D42">
+        <f>B1-A1</f>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D43)</f>
+        <v>=DAYS(B1,A1)</v>
+      </c>
+      <c r="D43">
+        <f>_xlfn.DAYS(B1,A1)</f>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D44)</f>
+        <v>=DATEDIF(A1,B1,"D")</v>
+      </c>
+      <c r="D44">
+        <f>DATEDIF(A1,B1,"D")</f>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D45)</f>
+        <v>=DATEDIF(A1,B1,"YD")</v>
+      </c>
+      <c r="D45">
+        <f>DATEDIF(A1,B1,"YD")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="23">
+        <v>44227</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D46)</f>
+        <v>=DATEDIF(A1,B1,"MD")</v>
+      </c>
+      <c r="D46">
+        <f>DATEDIF(A1,B1,"MD")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D47)</f>
+        <v>=DATEDIF(A1,B1,"YM")</v>
+      </c>
+      <c r="D47">
+        <f>DATEDIF(A1,B1,"YM")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D48)</f>
+        <v>=DATEDIF(A1,B1,"M")</v>
+      </c>
+      <c r="D48">
+        <f>DATEDIF(A1,B1,"M")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" ref="C49" ca="1" si="3">_xlfn.FORMULATEXT(D49)</f>
+        <v>=DATEDIF(A1,B1,"Y")</v>
+      </c>
+      <c r="D49">
+        <f>DATEDIF(A1,B1,"Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
+        <v>43831</v>
+      </c>
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D53)</f>
+        <v>=EDATE(A1,1)</v>
+      </c>
+      <c r="D53" s="23">
+        <f>EDATE(A1,1)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="str">
+        <f>DATESTRING(A53)</f>
+        <v>20年01月01日</v>
       </c>
     </row>
   </sheetData>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07009D52-9C80-4FFA-A482-30E6595E57CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AFD477-01F0-4983-8E6A-7BC58A7F3A81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="字符串" sheetId="3" r:id="rId1"/>
     <sheet name="数值" sheetId="1" r:id="rId2"/>
     <sheet name="频率" sheetId="2" r:id="rId3"/>
     <sheet name="时间日期" sheetId="4" r:id="rId4"/>
+    <sheet name="重复值" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数值!$A$1:$H$7</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="158">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -651,6 +652,47 @@
   </si>
   <si>
     <t>计算日期1个月份后的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aa</t>
+  </si>
+  <si>
+    <t>Aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bb</t>
+  </si>
+  <si>
+    <t>Bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cc</t>
+  </si>
+  <si>
+    <t>Cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算A1重复次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断A1是否重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断A1是否首次出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断A1是否最后一次出现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2037,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152390E9-FB71-433B-B484-532B244D41D3}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2188,14 +2230,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43972.366110648145</v>
+        <v>43974.459772916663</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43972</v>
+        <v>43974</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2498,7 +2540,7 @@
         <v>143</v>
       </c>
       <c r="C42" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D42)</f>
+        <f t="shared" ref="C42:C48" ca="1" si="3">_xlfn.FORMULATEXT(D42)</f>
         <v>=B1-A1</v>
       </c>
       <c r="D42">
@@ -2511,7 +2553,7 @@
         <v>144</v>
       </c>
       <c r="C43" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D43)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>=DAYS(B1,A1)</v>
       </c>
       <c r="D43">
@@ -2524,7 +2566,7 @@
         <v>145</v>
       </c>
       <c r="C44" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D44)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>=DATEDIF(A1,B1,"D")</v>
       </c>
       <c r="D44">
@@ -2540,7 +2582,7 @@
         <v>140</v>
       </c>
       <c r="C45" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D45)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>=DATEDIF(A1,B1,"YD")</v>
       </c>
       <c r="D45">
@@ -2556,7 +2598,7 @@
         <v>141</v>
       </c>
       <c r="C46" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D46)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>=DATEDIF(A1,B1,"MD")</v>
       </c>
       <c r="D46">
@@ -2569,7 +2611,7 @@
         <v>139</v>
       </c>
       <c r="C47" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D47)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>=DATEDIF(A1,B1,"YM")</v>
       </c>
       <c r="D47">
@@ -2582,7 +2624,7 @@
         <v>138</v>
       </c>
       <c r="C48" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D48)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>=DATEDIF(A1,B1,"M")</v>
       </c>
       <c r="D48">
@@ -2595,7 +2637,7 @@
         <v>137</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" ref="C49" ca="1" si="3">_xlfn.FORMULATEXT(D49)</f>
+        <f t="shared" ref="C49" ca="1" si="4">_xlfn.FORMULATEXT(D49)</f>
         <v>=DATEDIF(A1,B1,"Y")</v>
       </c>
       <c r="D49">
@@ -2637,6 +2679,159 @@
       <c r="C57" t="str">
         <f>DATESTRING(A53)</f>
         <v>20年01月01日</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA29BA32-4EF0-46F3-A12C-00ADCA4850D8}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F7" ca="1" si="0">_xlfn.FORMULATEXT(G2)</f>
+        <v>=COUNTIF(A:A,A1)</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIF(A:A,A1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=IF(COUNTIF(A:A,A1&amp;"*")&gt;1,"重复","")</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(COUNTIF(A:A,A1&amp;"*")&gt;1,"重复","")</f>
+        <v>重复</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(G4)</f>
+        <v>=IF(COUNTIF(A$1:A1,A1)=1,"是","否")</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(COUNTIF(A$1:A1,A1)=1,"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=IF(COUNTIF(A$1:A2,A2)=1,"是","否")</v>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(COUNTIF(A$1:A2,A2)=1,"是","否")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=IF(COUNTIF(A1:A$5,A1)=1,"是","否")</v>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(COUNTIF(A1:A$5,A1)=1,"是","否")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=IF(COUNTIF(A2:A$5,A2)=1,"是","否")</v>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(COUNTIF(A2:A$5,A2)=1,"是","否")</f>
+        <v>是</v>
       </c>
     </row>
   </sheetData>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AFD477-01F0-4983-8E6A-7BC58A7F3A81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279B2D1F-DD44-4B67-85DE-B846367F8DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
@@ -2230,14 +2230,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43974.459772916663</v>
+        <v>43975.354359953701</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2689,10 +2689,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA29BA32-4EF0-46F3-A12C-00ADCA4850D8}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2734,7 +2734,7 @@
         <v>153</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F7" ca="1" si="0">_xlfn.FORMULATEXT(G2)</f>
+        <f t="shared" ref="F2:F8" ca="1" si="0">_xlfn.FORMULATEXT(G2)</f>
         <v>=COUNTIF(A:A,A1)</v>
       </c>
       <c r="G2">
@@ -2832,6 +2832,16 @@
       <c r="G7" t="str">
         <f>IF(COUNTIF(A2:A$5,A2)=1,"是","否")</f>
         <v>是</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=SUMPRODUCT(1/COUNTIF(A1:A5,A1:A5))</v>
+      </c>
+      <c r="G8">
+        <f>SUMPRODUCT(1/COUNTIF(A1:A5,A1:A5))</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279B2D1F-DD44-4B67-85DE-B846367F8DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9182855-CB95-4BC4-B84D-D1C077D17C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="4" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="字符串" sheetId="3" r:id="rId1"/>
@@ -2230,14 +2230,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43975.354359953701</v>
+        <v>43976.368512962959</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2691,9 +2691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA29BA32-4EF0-46F3-A12C-00ADCA4850D8}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2701,6 +2699,7 @@
     <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2734,7 +2733,7 @@
         <v>153</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F8" ca="1" si="0">_xlfn.FORMULATEXT(G2)</f>
+        <f ca="1">_xlfn.FORMULATEXT(G2)</f>
         <v>=COUNTIF(A:A,A1)</v>
       </c>
       <c r="G2">
@@ -2756,7 +2755,7 @@
         <v>154</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(G3)</f>
         <v>=IF(COUNTIF(A:A,A1&amp;"*")&gt;1,"重复","")</v>
       </c>
       <c r="G3" t="str">
@@ -2797,7 +2796,7 @@
         <v>149</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(G5)</f>
         <v>=IF(COUNTIF(A$1:A2,A2)=1,"是","否")</v>
       </c>
       <c r="G5" t="str">
@@ -2816,7 +2815,7 @@
         <v>157</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(G6)</f>
         <v>=IF(COUNTIF(A1:A$5,A1)=1,"是","否")</v>
       </c>
       <c r="G6" t="str">
@@ -2826,7 +2825,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(G7)</f>
         <v>=IF(COUNTIF(A2:A$5,A2)=1,"是","否")</v>
       </c>
       <c r="G7" t="str">
@@ -2836,7 +2835,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(G8)</f>
         <v>=SUMPRODUCT(1/COUNTIF(A1:A5,A1:A5))</v>
       </c>
       <c r="G8">

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9182855-CB95-4BC4-B84D-D1C077D17C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E773817E-7EF5-4D8F-93A0-C85DA7BAC546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="4" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="字符串" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="频率" sheetId="2" r:id="rId3"/>
     <sheet name="时间日期" sheetId="4" r:id="rId4"/>
     <sheet name="重复值" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数值!$A$1:$H$7</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="158">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1274,7 +1275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -1727,7 +1728,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="J1:L1048576"/>
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2230,14 +2231,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43976.368512962959</v>
+        <v>43978.368337037035</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43976</v>
+        <v>43978</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2691,7 +2692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA29BA32-4EF0-46F3-A12C-00ADCA4850D8}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2733,7 +2734,7 @@
         <v>153</v>
       </c>
       <c r="F2" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(G2)</f>
+        <f t="shared" ref="F2:F8" ca="1" si="0">_xlfn.FORMULATEXT(G2)</f>
         <v>=COUNTIF(A:A,A1)</v>
       </c>
       <c r="G2">
@@ -2755,7 +2756,7 @@
         <v>154</v>
       </c>
       <c r="F3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(G3)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>=IF(COUNTIF(A:A,A1&amp;"*")&gt;1,"重复","")</v>
       </c>
       <c r="G3" t="str">
@@ -2777,7 +2778,7 @@
         <v>156</v>
       </c>
       <c r="F4" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(G4)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>=IF(COUNTIF(A$1:A1,A1)=1,"是","否")</v>
       </c>
       <c r="G4" t="str">
@@ -2796,7 +2797,7 @@
         <v>149</v>
       </c>
       <c r="F5" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(G5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>=IF(COUNTIF(A$1:A2,A2)=1,"是","否")</v>
       </c>
       <c r="G5" t="str">
@@ -2815,7 +2816,7 @@
         <v>157</v>
       </c>
       <c r="F6" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(G6)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>=IF(COUNTIF(A1:A$5,A1)=1,"是","否")</v>
       </c>
       <c r="G6" t="str">
@@ -2825,7 +2826,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(G7)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>=IF(COUNTIF(A2:A$5,A2)=1,"是","否")</v>
       </c>
       <c r="G7" t="str">
@@ -2835,12 +2836,154 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(G8)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>=SUMPRODUCT(1/COUNTIF(A1:A5,A1:A5))</v>
       </c>
       <c r="G8">
         <f>SUMPRODUCT(1/COUNTIF(A1:A5,A1:A5))</f>
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363BB2E8-E2AE-4570-975A-221C77F87DE2}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>12301</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8">
+        <v>12302</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>VLOOKUP($E2,$A:$C,COLUMN(B1),0)</f>
+        <v>Betty</v>
+      </c>
+      <c r="G2" s="9" t="str">
+        <f>VLOOKUP($E2,$A:$C,COLUMN(C1),0)</f>
+        <v>Wang</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>12302</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8">
+        <v>12303</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>VLOOKUP($E3,$A:$C,COLUMN(B2),0)</f>
+        <v>Cindy</v>
+      </c>
+      <c r="G3" s="9" t="str">
+        <f>VLOOKUP($E3,$A:$C,COLUMN(C2),0)</f>
+        <v>Zhao</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>12303</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
+        <v>12304</v>
+      </c>
+      <c r="F4" s="11" t="str">
+        <f>VLOOKUP($E4,$A:$C,COLUMN(B3),0)</f>
+        <v>David</v>
+      </c>
+      <c r="G4" s="12" t="str">
+        <f>VLOOKUP($E4,$A:$C,COLUMN(C3),0)</f>
+        <v>Qian</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>12304</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>12305</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>12306</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E773817E-7EF5-4D8F-93A0-C85DA7BAC546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C290D4-51A8-4E55-A40C-726CAA8137E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="30516" yWindow="5016" windowWidth="17280" windowHeight="9072" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="字符串" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="161">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -694,6 +694,18 @@
   </si>
   <si>
     <t>判断A1是否最后一次出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>et</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,7 +780,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -862,13 +874,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,6 +992,18 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2231,14 +2277,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43978.368337037035</v>
+        <v>43979.358161921293</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2852,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363BB2E8-E2AE-4570-975A-221C77F87DE2}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2864,10 +2910,9 @@
     <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>74</v>
       </c>
@@ -2880,14 +2925,11 @@
       <c r="E1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>12301</v>
       </c>
@@ -2897,19 +2939,15 @@
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8">
-        <v>12302</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f>VLOOKUP($E2,$A:$C,COLUMN(B1),0)</f>
-        <v>Betty</v>
-      </c>
-      <c r="G2" s="9" t="str">
-        <f>VLOOKUP($E2,$A:$C,COLUMN(C1),0)</f>
+      <c r="E2" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="32" t="str">
+        <f>VLOOKUP("*"&amp;E2&amp;"*",$B:$C,2,0)</f>
         <v>Wang</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>12302</v>
       </c>
@@ -2919,19 +2957,15 @@
       <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8">
-        <v>12303</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f>VLOOKUP($E3,$A:$C,COLUMN(B2),0)</f>
-        <v>Cindy</v>
-      </c>
-      <c r="G3" s="9" t="str">
-        <f>VLOOKUP($E3,$A:$C,COLUMN(C2),0)</f>
+      <c r="E3" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="9" t="str">
+        <f t="shared" ref="F3:F4" si="0">VLOOKUP("*"&amp;E3&amp;"*",$B:$C,2,0)</f>
         <v>Zhao</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>12303</v>
       </c>
@@ -2941,19 +2975,15 @@
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10">
-        <v>12304</v>
-      </c>
-      <c r="F4" s="11" t="str">
-        <f>VLOOKUP($E4,$A:$C,COLUMN(B3),0)</f>
-        <v>David</v>
-      </c>
-      <c r="G4" s="12" t="str">
-        <f>VLOOKUP($E4,$A:$C,COLUMN(C3),0)</f>
-        <v>Qian</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Zhang</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>12304</v>
       </c>
@@ -2964,7 +2994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>12305</v>
       </c>
@@ -2975,7 +3005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>12306</v>
       </c>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C290D4-51A8-4E55-A40C-726CAA8137E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F8EED-722A-4A08-ADF3-E7BC220CD273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30516" yWindow="5016" windowWidth="17280" windowHeight="9072" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="字符串" sheetId="3" r:id="rId1"/>
@@ -701,11 +701,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +780,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -885,24 +885,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,9 +986,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -2277,14 +2263,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43979.358161921293</v>
+        <v>43980.401398495371</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2901,7 +2887,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2942,8 +2928,8 @@
       <c r="E2" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="32" t="str">
-        <f>VLOOKUP("*"&amp;E2&amp;"*",$B:$C,2,0)</f>
+      <c r="F2" s="9" t="str">
+        <f>IFERROR(VLOOKUP("*"&amp;E2&amp;"*",$B:$C,2,0),"")</f>
         <v>Wang</v>
       </c>
     </row>
@@ -2958,10 +2944,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="9" t="str">
-        <f t="shared" ref="F3:F4" si="0">VLOOKUP("*"&amp;E3&amp;"*",$B:$C,2,0)</f>
+        <f t="shared" ref="F3:F4" si="0">IFERROR(VLOOKUP("*"&amp;E3&amp;"*",$B:$C,2,0),"")</f>
         <v>Zhao</v>
       </c>
     </row>
@@ -2975,12 +2961,12 @@
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>159</v>
+      <c r="E4" s="32" t="s">
+        <v>160</v>
       </c>
       <c r="F4" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Zhang</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F8EED-722A-4A08-ADF3-E7BC220CD273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434C858A-C2D2-4EA4-88EB-64F1ABE4CF8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="158">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -694,18 +694,6 @@
   </si>
   <si>
     <t>判断A1是否最后一次出现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>et</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -874,24 +862,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,15 +958,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2263,14 +2231,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43980.401398495371</v>
+        <v>43982.393103703704</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2884,21 +2852,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363BB2E8-E2AE-4570-975A-221C77F87DE2}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>74</v>
       </c>
@@ -2908,14 +2874,16 @@
       <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <f>LOOKUP(9E+307,A:A)</f>
+        <v>12306</v>
+      </c>
+      <c r="H1" t="str">
+        <f>LOOKUP("做",A:A)</f>
+        <v>id</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>12301</v>
       </c>
@@ -2925,15 +2893,8 @@
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="9" t="str">
-        <f>IFERROR(VLOOKUP("*"&amp;E2&amp;"*",$B:$C,2,0),"")</f>
-        <v>Wang</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>12302</v>
       </c>
@@ -2943,15 +2904,8 @@
       <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="9" t="str">
-        <f t="shared" ref="F3:F4" si="0">IFERROR(VLOOKUP("*"&amp;E3&amp;"*",$B:$C,2,0),"")</f>
-        <v>Zhao</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>12303</v>
       </c>
@@ -2961,15 +2915,8 @@
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>12304</v>
       </c>
@@ -2980,7 +2927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>12305</v>
       </c>
@@ -2991,7 +2938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>12306</v>
       </c>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434C858A-C2D2-4EA4-88EB-64F1ABE4CF8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA60A1D-72D5-4E31-BA35-C52C6954F7C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="162">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -694,6 +694,22 @@
   </si>
   <si>
     <t>判断A1是否最后一次出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,7 +784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -862,13 +878,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,6 +984,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2231,14 +2267,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43982.393103703704</v>
+        <v>43983.357281249999</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2852,102 +2888,70 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363BB2E8-E2AE-4570-975A-221C77F87DE2}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1">
-        <f>LOOKUP(9E+307,A:A)</f>
-        <v>12306</v>
-      </c>
-      <c r="H1" t="str">
-        <f>LOOKUP("做",A:A)</f>
-        <v>id</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>12301</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="str">
+        <f>LOOKUP(1,0/(B:B&lt;&gt;""),B:B)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>12302</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>12303</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>12304</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="31"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>12305</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>12306</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="B7" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA60A1D-72D5-4E31-BA35-C52C6954F7C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3317A9C-E1A3-47DC-AC24-5406B34E3DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="字符串" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -697,20 +697,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>id</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Betty</t>
+  </si>
+  <si>
+    <t>Cindy</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Emma</t>
   </si>
 </sst>
 </file>
@@ -895,7 +900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -987,13 +992,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1764,7 +1763,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2267,14 +2266,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43983.357281249999</v>
+        <v>43984.350644675927</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2888,70 +2887,100 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363BB2E8-E2AE-4570-975A-221C77F87DE2}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>12301</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" t="str">
-        <f>LOOKUP(1,0/(B:B&lt;&gt;""),B:B)</f>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2">
+        <f>LOOKUP(1,0/(B:B=D2),A:A)</f>
+        <v>12302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>12302</v>
       </c>
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">LOOKUP(1,0/(B:B=D3),A:A)</f>
+        <v>12303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>12303</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>12304</v>
       </c>
-      <c r="B5" s="31"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>12306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>12305</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>12306</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="12" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3317A9C-E1A3-47DC-AC24-5406B34E3DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86344A6A-7BF7-4CB9-B75A-81797399C772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="字符串" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="174">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,10 +447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,6 +712,44 @@
   </si>
   <si>
     <t>Emma</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值-方法1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值-方法2</t>
   </si>
 </sst>
 </file>
@@ -789,7 +823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -883,17 +917,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -991,7 +1014,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1308,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1718,7 +1741,7 @@
         <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
         <v>87</v>
@@ -1741,13 +1764,26 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D48" t="str">
         <f>MID(A1,LENB(A1)-LEN(A1)+1,LENB(A1))</f>
+        <v>12222222222</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" ref="C49" ca="1" si="0">_xlfn.FORMULATEXT(D49)</f>
+        <v>=-LOOKUP(1,-RIGHT(A1,ROW($1:$99)))</v>
+      </c>
+      <c r="D49">
+        <f>-LOOKUP(1,-RIGHT(A1,ROW($1:$99)))</f>
         <v>12222222222</v>
       </c>
     </row>
@@ -1763,7 +1799,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="H1" activeCellId="1" sqref="A1:B7 H1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1982,20 +2018,20 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>96</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2014,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2050,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2068,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2116,7 +2152,7 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2138,7 +2174,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2146,7 +2182,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -2164,7 +2200,7 @@
         <v>43831.430902777778</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D5)</f>
@@ -2178,7 +2214,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ref="C6:C11" ca="1" si="0">_xlfn.FORMULATEXT(D6)</f>
@@ -2192,7 +2228,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2206,7 +2242,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2220,7 +2256,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2234,7 +2270,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2248,7 +2284,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2266,14 +2302,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43984.350644675927</v>
+        <v>43985.361430439814</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2285,16 +2321,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>105</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2302,7 +2338,7 @@
         <v>43831</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ref="C18:C33" ca="1" si="1">_xlfn.FORMULATEXT(D18)</f>
@@ -2315,7 +2351,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2328,7 +2364,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2341,7 +2377,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2354,7 +2390,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2368,7 +2404,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2381,7 +2417,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2394,7 +2430,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2407,7 +2443,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2420,7 +2456,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2433,7 +2469,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2446,7 +2482,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2459,7 +2495,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2472,7 +2508,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2485,7 +2521,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2498,7 +2534,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2511,7 +2547,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
         <v>57</v>
@@ -2525,10 +2561,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ref="C37" ca="1" si="2">_xlfn.FORMULATEXT(D37)</f>
@@ -2541,13 +2577,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="D38" s="29">
         <f>TIMEVALUE(SUBSTITUTE(SUBSTITUTE(A2,"分",""),"时",":"))</f>
@@ -2556,7 +2592,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
         <v>57</v>
@@ -2573,7 +2609,7 @@
         <v>43831</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ref="C42:C48" ca="1" si="3">_xlfn.FORMULATEXT(D42)</f>
@@ -2586,7 +2622,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2599,7 +2635,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2612,10 +2648,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2631,7 +2667,7 @@
         <v>44227</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2644,7 +2680,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2657,7 +2693,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2670,7 +2706,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" ref="C49" ca="1" si="4">_xlfn.FORMULATEXT(D49)</f>
@@ -2683,7 +2719,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
@@ -2700,7 +2736,7 @@
         <v>43831</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C53" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D53)</f>
@@ -2727,7 +2763,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA29BA32-4EF0-46F3-A12C-00ADCA4850D8}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2740,10 +2778,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
@@ -2757,16 +2795,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F8" ca="1" si="0">_xlfn.FORMULATEXT(G2)</f>
@@ -2779,16 +2817,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2801,16 +2839,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2823,13 +2861,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2845,10 +2883,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2887,99 +2925,157 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363BB2E8-E2AE-4570-975A-221C77F87DE2}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>12301</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2">
-        <f>LOOKUP(1,0/(B:B=D2),A:A)</f>
-        <v>12302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="1">
+        <v>70</v>
+      </c>
+      <c r="D2" s="9" t="str">
+        <f>LOOKUP(C2,F:G)</f>
+        <v>C</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>12302</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">LOOKUP(1,0/(B:B=D3),A:A)</f>
-        <v>12303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="1">
+        <v>55</v>
+      </c>
+      <c r="D3" s="9" t="str">
+        <f t="shared" ref="D3:D7" si="0">LOOKUP(C3,F:G)</f>
+        <v>E</v>
+      </c>
+      <c r="F3" s="30">
+        <v>60</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>12303</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="1">
+        <v>91</v>
+      </c>
+      <c r="D4" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>12305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="F4" s="30">
+        <v>70</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>12304</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="1">
+        <v>60</v>
+      </c>
+      <c r="D5" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>12306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>D</v>
+      </c>
+      <c r="F5" s="30">
+        <v>80</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>12305</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="1">
+        <v>86</v>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="F6" s="30">
+        <v>90</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>12306</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>164</v>
+      <c r="B7" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="11">
+        <v>95</v>
+      </c>
+      <c r="D7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
       </c>
     </row>
   </sheetData>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86344A6A-7BF7-4CB9-B75A-81797399C772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EE503F-0A9C-447A-A1BD-A07A1FA2569D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="字符串" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="频率" sheetId="2" r:id="rId3"/>
     <sheet name="时间日期" sheetId="4" r:id="rId4"/>
     <sheet name="重复值" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="匹配" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数值!$A$1:$H$7</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="168">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -718,30 +718,6 @@
   </si>
   <si>
     <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -923,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,9 +989,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1764,7 +1737,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>90</v>
@@ -1776,7 +1749,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" ref="C49" ca="1" si="0">_xlfn.FORMULATEXT(D49)</f>
@@ -2302,14 +2275,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43985.361430439814</v>
+        <v>43986.355126967595</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2763,7 +2736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA29BA32-4EF0-46F3-A12C-00ADCA4850D8}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2925,9 +2898,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363BB2E8-E2AE-4570-975A-221C77F87DE2}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2935,10 +2908,9 @@
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>157</v>
       </c>
@@ -2951,14 +2923,8 @@
       <c r="D1" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>12301</v>
       </c>
@@ -2969,17 +2935,11 @@
         <v>70</v>
       </c>
       <c r="D2" s="9" t="str">
-        <f>LOOKUP(C2,F:G)</f>
+        <f>LOOKUP(C2, {0,60,70,80,90}, {"E","D","C","B","A"})</f>
         <v>C</v>
       </c>
-      <c r="F2" s="17">
-        <v>0</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>12302</v>
       </c>
@@ -2990,17 +2950,11 @@
         <v>55</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f t="shared" ref="D3:D7" si="0">LOOKUP(C3,F:G)</f>
+        <f>LOOKUP(C3, {0,60,70,80,90}, {"E","D","C","B","A"})</f>
         <v>E</v>
       </c>
-      <c r="F3" s="30">
-        <v>60</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>12303</v>
       </c>
@@ -3011,17 +2965,11 @@
         <v>91</v>
       </c>
       <c r="D4" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(C4, {0,60,70,80,90}, {"E","D","C","B","A"})</f>
         <v>A</v>
       </c>
-      <c r="F4" s="30">
-        <v>70</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>12304</v>
       </c>
@@ -3032,17 +2980,11 @@
         <v>60</v>
       </c>
       <c r="D5" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(C5, {0,60,70,80,90}, {"E","D","C","B","A"})</f>
         <v>D</v>
       </c>
-      <c r="F5" s="30">
-        <v>80</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>12305</v>
       </c>
@@ -3053,17 +2995,11 @@
         <v>86</v>
       </c>
       <c r="D6" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(C6, {0,60,70,80,90}, {"E","D","C","B","A"})</f>
         <v>B</v>
       </c>
-      <c r="F6" s="30">
-        <v>90</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>12306</v>
       </c>
@@ -3074,7 +3010,7 @@
         <v>95</v>
       </c>
       <c r="D7" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(C7, {0,60,70,80,90}, {"E","D","C","B","A"})</f>
         <v>A</v>
       </c>
     </row>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EE503F-0A9C-447A-A1BD-A07A1FA2569D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E836394-AB6D-4945-8958-769696B89B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="167">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -715,10 +715,6 @@
   </si>
   <si>
     <t>score</t>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数值-方法1</t>
@@ -785,7 +781,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,6 +791,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,7 +901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +991,9 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1737,7 +1742,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>90</v>
@@ -1749,7 +1754,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" ref="C49" ca="1" si="0">_xlfn.FORMULATEXT(D49)</f>
@@ -2275,14 +2280,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43986.355126967595</v>
+        <v>43987.355516435186</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2898,120 +2903,120 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363BB2E8-E2AE-4570-975A-221C77F87DE2}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>157</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>12301</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="9">
         <v>70</v>
       </c>
-      <c r="D2" s="9" t="str">
-        <f>LOOKUP(C2, {0,60,70,80,90}, {"E","D","C","B","A"})</f>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="17">
+        <f>INDEX(A:C,MATCH(E2,B:B,0),1)</f>
+        <v>12301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>12302</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="9">
         <v>55</v>
       </c>
-      <c r="D3" s="9" t="str">
-        <f>LOOKUP(C3, {0,60,70,80,90}, {"E","D","C","B","A"})</f>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" ref="F3:F4" si="0">INDEX(A:C,MATCH(E3,B:B,0),1)</f>
+        <v>12303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>12303</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="9">
         <v>91</v>
       </c>
-      <c r="D4" s="9" t="str">
-        <f>LOOKUP(C4, {0,60,70,80,90}, {"E","D","C","B","A"})</f>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
+        <v>12306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>12304</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="9">
         <v>60</v>
       </c>
-      <c r="D5" s="9" t="str">
-        <f>LOOKUP(C5, {0,60,70,80,90}, {"E","D","C","B","A"})</f>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>12305</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="9">
         <v>86</v>
       </c>
-      <c r="D6" s="9" t="str">
-        <f>LOOKUP(C6, {0,60,70,80,90}, {"E","D","C","B","A"})</f>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>12306</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>95</v>
-      </c>
-      <c r="D7" s="12" t="str">
-        <f>LOOKUP(C7, {0,60,70,80,90}, {"E","D","C","B","A"})</f>
-        <v>A</v>
       </c>
     </row>
   </sheetData>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E836394-AB6D-4945-8958-769696B89B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF27C65-1CE0-40FD-B724-5C53A29F7E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="字符串" sheetId="3" r:id="rId1"/>
@@ -19,11 +19,16 @@
     <sheet name="时间日期" sheetId="4" r:id="rId4"/>
     <sheet name="重复值" sheetId="5" r:id="rId5"/>
     <sheet name="匹配" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!$A$1:$B$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数值!$A$1:$H$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="178">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -722,6 +727,40 @@
   </si>
   <si>
     <t>数值-方法2</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>是否合格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格</t>
+  </si>
+  <si>
+    <t>不合格</t>
+  </si>
+  <si>
+    <t>计数项:id</t>
+  </si>
+  <si>
+    <t>&lt;60</t>
+  </si>
+  <si>
+    <t>60-69</t>
+  </si>
+  <si>
+    <t>70-79</t>
+  </si>
+  <si>
+    <t>80-90</t>
+  </si>
+  <si>
+    <t>&gt;90</t>
   </si>
 </sst>
 </file>
@@ -901,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -995,6 +1034,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1010,6 +1055,269 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="zhuangzhen" refreshedDate="43988.330042013891" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{7F375E1A-2565-4CFF-B211-AE4B206D368E}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D21" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12301" maxValue="12306"/>
+    </cacheField>
+    <cacheField name="first name" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Andy"/>
+        <s v="Betty"/>
+        <s v="Cindy"/>
+        <s v="David"/>
+        <s v="Emma"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="score" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="99" count="17">
+        <n v="96"/>
+        <n v="68"/>
+        <n v="59"/>
+        <n v="70"/>
+        <n v="63"/>
+        <n v="60"/>
+        <n v="67"/>
+        <n v="62"/>
+        <n v="52"/>
+        <n v="50"/>
+        <n v="89"/>
+        <n v="99"/>
+        <n v="55"/>
+        <n v="69"/>
+        <n v="93"/>
+        <n v="87"/>
+        <n v="57"/>
+      </sharedItems>
+      <fieldGroup base="2">
+        <rangePr autoStart="0" autoEnd="0" startNum="60" endNum="90" groupInterval="10"/>
+        <groupItems count="5">
+          <s v="&lt;60"/>
+          <s v="60-69"/>
+          <s v="70-79"/>
+          <s v="80-90"/>
+          <s v="&gt;90"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="是否合格" numFmtId="0">
+      <sharedItems count="2">
+        <s v="合格"/>
+        <s v="不合格"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+  <r>
+    <n v="12301"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12302"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12303"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12305"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="12306"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12301"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12302"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12303"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12302"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12303"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="12305"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="12306"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12305"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12306"/>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12301"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="12302"/>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12303"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12305"/>
+    <x v="3"/>
+    <x v="15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12306"/>
+    <x v="4"/>
+    <x v="16"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="12301"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E842FDCA-174F-4ECC-86A4-71D72E39E261}" name="数据透视表2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F1:G7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:id" fld="0" subtotal="count" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1777,7 +2085,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" activeCellId="1" sqref="A1:B7 H1:H7"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2280,14 +2588,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43987.355516435186</v>
+        <v>43988.333476504631</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2905,7 +3213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363BB2E8-E2AE-4570-975A-221C77F87DE2}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3023,4 +3331,361 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FBE106-E375-414B-8E17-59411A7B99CF}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12302</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12303</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12305</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12306</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12301</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12302</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12303</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12302</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12303</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12305</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12306</v>
+      </c>
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12305</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12306</v>
+      </c>
+      <c r="B15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12301</v>
+      </c>
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12302</v>
+      </c>
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12303</v>
+      </c>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12305</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12306</v>
+      </c>
+      <c r="B20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>12301</v>
+      </c>
+      <c r="B21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF27C65-1CE0-40FD-B724-5C53A29F7E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4067A70D-31C6-4AD5-B218-54DA12E8EC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="字符串" sheetId="3" r:id="rId1"/>
@@ -19,15 +19,15 @@
     <sheet name="时间日期" sheetId="4" r:id="rId4"/>
     <sheet name="重复值" sheetId="5" r:id="rId5"/>
     <sheet name="匹配" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="透视表" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!$A$1:$B$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数值!$A$1:$H$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">透视表!$A$1:$B$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="179">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -761,6 +761,10 @@
   </si>
   <si>
     <t>&gt;90</t>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1060,7 +1064,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="zhuangzhen" refreshedDate="43988.330042013891" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{7F375E1A-2565-4CFF-B211-AE4B206D368E}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D21" sheet="Sheet1"/>
+    <worksheetSource ref="A1:D21" sheet="透视表"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="id" numFmtId="0">
@@ -1247,7 +1251,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E842FDCA-174F-4ECC-86A4-71D72E39E261}" name="数据透视表2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E842FDCA-174F-4ECC-86A4-71D72E39E261}" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F1:G7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -1619,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:D49"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2588,14 +2592,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43988.333476504631</v>
+        <v>43989.359428009258</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -3211,10 +3215,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363BB2E8-E2AE-4570-975A-221C77F87DE2}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3223,7 +3227,7 @@
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>157</v>
       </c>
@@ -3240,7 +3244,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>12301</v>
       </c>
@@ -3257,8 +3261,15 @@
         <f>INDEX(A:C,MATCH(E2,B:B,0),1)</f>
         <v>12301</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2">
+        <f>LOOKUP(9E+307,I:I)</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>12302</v>
       </c>
@@ -3275,8 +3286,11 @@
         <f t="shared" ref="F3:F4" si="0">INDEX(A:C,MATCH(E3,B:B,0),1)</f>
         <v>12303</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>12303</v>
       </c>
@@ -3294,7 +3308,7 @@
         <v>12306</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>12304</v>
       </c>
@@ -3305,7 +3319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>12305</v>
       </c>
@@ -3316,7 +3330,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>12306</v>
       </c>
@@ -3337,7 +3351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FBE106-E375-414B-8E17-59411A7B99CF}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4067A70D-31C6-4AD5-B218-54DA12E8EC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE99DFC-DDEE-482F-925A-3C3529A15CBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
-    <sheet name="字符串" sheetId="3" r:id="rId1"/>
-    <sheet name="数值" sheetId="1" r:id="rId2"/>
-    <sheet name="频率" sheetId="2" r:id="rId3"/>
-    <sheet name="时间日期" sheetId="4" r:id="rId4"/>
-    <sheet name="重复值" sheetId="5" r:id="rId5"/>
+    <sheet name="数据表" sheetId="1" r:id="rId1"/>
+    <sheet name="字符串" sheetId="3" r:id="rId2"/>
+    <sheet name="时间日期" sheetId="4" r:id="rId3"/>
+    <sheet name="重复值" sheetId="5" r:id="rId4"/>
+    <sheet name="频率" sheetId="2" r:id="rId5"/>
     <sheet name="匹配" sheetId="6" r:id="rId6"/>
     <sheet name="透视表" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数值!$A$1:$H$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据表!$A$1:$H$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">透视表!$A$1:$B$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="181">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,15 +256,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>123***789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计算单元格内特定符号的数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=LEN(A1)-LEN(SUBSTITUTE(A1,"*",""))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -419,9 +411,6 @@
   </si>
   <si>
     <t>小明12222222222</t>
-  </si>
-  <si>
-    <t>小明12222222222</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -764,6 +753,25 @@
   </si>
   <si>
     <t>ABC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小A，小B，小C</t>
+  </si>
+  <si>
+    <t>小A，小B，小C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算单元格被符号分隔开的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123???789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=LEN(A1)-LEN(SUBSTITUTE(A1,"???",""))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1620,476 +1628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
-  <dimension ref="A1:I49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f>LEFT(A1,4)</f>
-        <v>小明12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f>RIGHT(A1,3)</f>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f>MID(A1,4,3)</f>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="5">
-        <f>FIND("-",A11)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="e">
-        <f>LEFT(A1,FIND("-",A1)-1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="str">
-        <f>MID(A11,FIND("-",A11)-3,3)</f>
-        <v>BCD</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="e">
-        <f>RIGHT(A1,FIND("-",A1)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="e">
-        <f>MID(A1,FIND("-",A1)+1,2)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>123456789123</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="5" t="str">
-        <f>""&amp;A20</f>
-        <v>123456789123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="str">
-        <f>""&amp;(VALUE(CLEAN(A20)))</f>
-        <v>123456789123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25">
-        <f>LEN(A25)-LEN(SUBSTITUTE(A25,"*",""))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28">
-        <f>MIDB(A1,SEARCHB("?",A1),2*LEN(A1)-LENB(A1))*1</f>
-        <v>12222222222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" t="str">
-        <f>TEXT(MID(A1,7,8),"00-00-00")</f>
-        <v>222-22-22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" t="e">
-        <f>IF(MOD(MID(A1,17,1),2),"男","女")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" t="e">
-        <f ca="1">DATEDIF(TEXT(MID(A1,7,8),"00-00-00"),TODAY(),"y")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="str">
-        <f>IF(COUNTIF(A:A,""&amp;A1)&gt;1,"重复","")</f>
-        <v>重复</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" t="str">
-        <f>A1&amp;"-"&amp;B1</f>
-        <v>小明12222222222-abcd</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" t="str">
-        <f>CONCATENATE(A1,"-",B1)</f>
-        <v>小明12222222222-abcd</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="7" t="b">
-        <f>A1=B1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="3" t="b">
-        <f>EXACT(A1,B1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" t="str">
-        <f>LEFT(A1,LENB(A1)-LEN(A1))</f>
-        <v>小明</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" t="str">
-        <f>MID(A1,LENB(A1)-LEN(A1)+1,LENB(A1))</f>
-        <v>12222222222</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" ref="C49" ca="1" si="0">_xlfn.FORMULATEXT(D49)</f>
-        <v>=-LOOKUP(1,-RIGHT(A1,ROW($1:$99)))</v>
-      </c>
-      <c r="D49">
-        <f>-LOOKUP(1,-RIGHT(A1,ROW($1:$99)))</f>
-        <v>12222222222</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAEBA02-6705-4319-AF73-D3BBE4403DF1}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2106,7 +1649,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>4</v>
@@ -2115,7 +1658,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>0</v>
@@ -2141,7 +1684,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1">
         <v>21</v>
@@ -2161,13 +1704,13 @@
         <v>12302</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1">
         <v>22</v>
@@ -2193,7 +1736,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1">
         <v>23</v>
@@ -2219,7 +1762,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1">
         <v>24</v>
@@ -2243,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1">
         <v>25</v>
@@ -2263,13 +1806,13 @@
         <v>12306</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7" s="11">
         <v>26</v>
@@ -2282,6 +1825,488 @@
       </c>
       <c r="H7" s="12">
         <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>LEFT(A1,4)</f>
+        <v>小A，小</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>RIGHT(A1,3)</f>
+        <v>，小C</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f>MID(A1,4,3)</f>
+        <v>小B，</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5">
+        <f>FIND("-",A11)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="e">
+        <f>LEFT(A1,FIND("-",A1)-1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="str">
+        <f>MID(A11,FIND("-",A11)-3,3)</f>
+        <v>BCD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="e">
+        <f>RIGHT(A1,FIND("-",A1)-2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="e">
+        <f>MID(A1,FIND("-",A1)+1,2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>123456789123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f>""&amp;A20</f>
+        <v>123456789123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="str">
+        <f>""&amp;(VALUE(CLEAN(A20)))</f>
+        <v>123456789123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25">
+        <f>LEN(A25)-LEN(SUBSTITUTE(A25,"???",""))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" ref="C26" ca="1" si="0">_xlfn.FORMULATEXT(D26)</f>
+        <v>=LEN(A1)-LEN(SUBSTITUTE(A1,"，",))+1</v>
+      </c>
+      <c r="D26">
+        <f>LEN(A1)-LEN(SUBSTITUTE(A1,"，",))+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="e">
+        <f>MIDB(A1,SEARCHB("?",A1),2*LEN(A1)-LENB(A1))*1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="str">
+        <f>TEXT(MID(A1,7,8),"00-00-00")</f>
+        <v>小C</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="e">
+        <f>IF(MOD(MID(A1,17,1),2),"男","女")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="e">
+        <f ca="1">DATEDIF(TEXT(MID(A1,7,8),"00-00-00"),TODAY(),"y")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="str">
+        <f>IF(COUNTIF(A:A,""&amp;A1)&gt;1,"重复","")</f>
+        <v>重复</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="str">
+        <f>A1&amp;"-"&amp;B1</f>
+        <v>小A，小B，小C-abcd</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="str">
+        <f>CONCATENATE(A1,"-",B1)</f>
+        <v>小A，小B，小C-abcd</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="7" t="b">
+        <f>A1=B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="3" t="b">
+        <f>EXACT(A1,B1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" t="str">
+        <f>LEFT(A1,LENB(A1)-LEN(A1))</f>
+        <v>小A，小B</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" t="str">
+        <f>MID(A1,LENB(A1)-LEN(A1)+1,LENB(A1))</f>
+        <v>，小C</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" ref="C51" ca="1" si="1">_xlfn.FORMULATEXT(D51)</f>
+        <v>=-LOOKUP(1,-RIGHT(A1,ROW($1:$101)))</v>
+      </c>
+      <c r="D51" t="e">
+        <f>-LOOKUP(1,-RIGHT(A1,ROW($1:$101)))</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -2292,156 +2317,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A2D295-71C9-4B81-B9FA-67544E684AEA}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="5" width="9.77734375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>12301</v>
-      </c>
-      <c r="B2" s="1">
-        <v>70</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="17">
-        <v>70</v>
-      </c>
-      <c r="E2" s="17">
-        <f t="array" ref="E2:E5">FREQUENCY(B:B,D:D-0.1)</f>
-        <v>2</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>12302</v>
-      </c>
-      <c r="B3" s="1">
-        <v>55</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="17">
-        <v>80</v>
-      </c>
-      <c r="E3" s="17">
-        <v>1</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>12303</v>
-      </c>
-      <c r="B4" s="1">
-        <v>91</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="17">
-        <v>90</v>
-      </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>12304</v>
-      </c>
-      <c r="B5" s="1">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="17">
-        <v>100</v>
-      </c>
-      <c r="E5" s="17">
-        <v>2</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>12305</v>
-      </c>
-      <c r="B6" s="1">
-        <v>86</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>12306</v>
-      </c>
-      <c r="B7" s="1">
-        <v>95</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="19"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152390E9-FB71-433B-B484-532B244D41D3}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2464,7 +2343,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2472,16 +2351,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -2490,7 +2369,7 @@
         <v>43831.430902777778</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D5)</f>
@@ -2504,7 +2383,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ref="C6:C11" ca="1" si="0">_xlfn.FORMULATEXT(D6)</f>
@@ -2518,7 +2397,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2532,7 +2411,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2546,7 +2425,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2560,7 +2439,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2574,7 +2453,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2592,7 +2471,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43989.359428009258</v>
+        <v>43989.372168518516</v>
       </c>
       <c r="K13" s="5"/>
     </row>
@@ -2611,16 +2490,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
         <v>103</v>
-      </c>
-      <c r="B17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2628,7 +2507,7 @@
         <v>43831</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ref="C18:C33" ca="1" si="1">_xlfn.FORMULATEXT(D18)</f>
@@ -2641,7 +2520,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2654,7 +2533,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2667,7 +2546,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2680,7 +2559,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2694,7 +2573,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2707,7 +2586,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2720,7 +2599,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2733,7 +2612,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2746,7 +2625,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2759,7 +2638,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2772,7 +2651,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2785,7 +2664,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2798,7 +2677,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2811,7 +2690,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2824,7 +2703,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2837,24 +2716,24 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
         <v>57</v>
-      </c>
-      <c r="C36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ref="C37" ca="1" si="2">_xlfn.FORMULATEXT(D37)</f>
@@ -2867,13 +2746,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D38" s="29">
         <f>TIMEVALUE(SUBSTITUTE(SUBSTITUTE(A2,"分",""),"时",":"))</f>
@@ -2882,16 +2761,16 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
         <v>57</v>
-      </c>
-      <c r="C41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2899,7 +2778,7 @@
         <v>43831</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ref="C42:C48" ca="1" si="3">_xlfn.FORMULATEXT(D42)</f>
@@ -2912,7 +2791,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2925,7 +2804,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2938,10 +2817,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2957,7 +2836,7 @@
         <v>44227</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2970,7 +2849,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2983,7 +2862,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2996,7 +2875,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" ref="C49" ca="1" si="4">_xlfn.FORMULATEXT(D49)</f>
@@ -3009,16 +2888,16 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
         <v>57</v>
-      </c>
-      <c r="C52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3026,7 +2905,7 @@
         <v>43831</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C53" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D53)</f>
@@ -3049,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA29BA32-4EF0-46F3-A12C-00ADCA4850D8}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -3068,10 +2947,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
@@ -3085,16 +2964,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F8" ca="1" si="0">_xlfn.FORMULATEXT(G2)</f>
@@ -3107,16 +2986,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3129,16 +3008,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3151,13 +3030,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3173,10 +3052,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3210,6 +3089,152 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A2D295-71C9-4B81-B9FA-67544E684AEA}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="5" width="9.77734375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12301</v>
+      </c>
+      <c r="B2" s="1">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="17">
+        <v>70</v>
+      </c>
+      <c r="E2" s="17">
+        <f t="array" ref="E2:E5">FREQUENCY(B:B,D:D-0.1)</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>12302</v>
+      </c>
+      <c r="B3" s="1">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="17">
+        <v>80</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12303</v>
+      </c>
+      <c r="B4" s="1">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="17">
+        <v>90</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12304</v>
+      </c>
+      <c r="B5" s="1">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="17">
+        <v>100</v>
+      </c>
+      <c r="E5" s="17">
+        <v>2</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>12305</v>
+      </c>
+      <c r="B6" s="1">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>12306</v>
+      </c>
+      <c r="B7" s="1">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="19"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3217,7 +3242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363BB2E8-E2AE-4570-975A-221C77F87DE2}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -3229,19 +3254,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3249,20 +3274,20 @@
         <v>12301</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C2" s="9">
         <v>70</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F2" s="17">
         <f>INDEX(A:C,MATCH(E2,B:B,0),1)</f>
         <v>12301</v>
       </c>
       <c r="I2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J2">
         <f>LOOKUP(9E+307,I:I)</f>
@@ -3274,13 +3299,13 @@
         <v>12302</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C3" s="9">
         <v>55</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F3" s="17">
         <f t="shared" ref="F3:F4" si="0">INDEX(A:C,MATCH(E3,B:B,0),1)</f>
@@ -3295,13 +3320,13 @@
         <v>12303</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C4" s="9">
         <v>91</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F4" s="17">
         <f t="shared" si="0"/>
@@ -3313,7 +3338,7 @@
         <v>12304</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C5" s="9">
         <v>60</v>
@@ -3324,7 +3349,7 @@
         <v>12305</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C6" s="9">
         <v>86</v>
@@ -3335,7 +3360,7 @@
         <v>12306</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C7" s="12">
         <v>95</v>
@@ -3364,7 +3389,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -3373,13 +3398,13 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
         <v>169</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3387,16 +3412,16 @@
         <v>12301</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C2">
         <v>96</v>
       </c>
       <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>170</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>173</v>
       </c>
       <c r="G2" s="5">
         <v>5</v>
@@ -3407,16 +3432,16 @@
         <v>12302</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C3">
         <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G3" s="5">
         <v>7</v>
@@ -3427,16 +3452,16 @@
         <v>12303</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C4">
         <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
@@ -3447,16 +3472,16 @@
         <v>12305</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C5">
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G5" s="5">
         <v>2</v>
@@ -3467,16 +3492,16 @@
         <v>12306</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C6">
         <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G6" s="5">
         <v>4</v>
@@ -3487,16 +3512,16 @@
         <v>12301</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C7">
         <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G7" s="5">
         <v>20</v>
@@ -3507,13 +3532,13 @@
         <v>12302</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C8">
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3521,13 +3546,13 @@
         <v>12303</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3535,13 +3560,13 @@
         <v>12302</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C10">
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3549,13 +3574,13 @@
         <v>12303</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C11">
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3563,13 +3588,13 @@
         <v>12305</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3577,13 +3602,13 @@
         <v>12306</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C13">
         <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3591,13 +3616,13 @@
         <v>12305</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C14">
         <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3605,13 +3630,13 @@
         <v>12306</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C15">
         <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3619,13 +3644,13 @@
         <v>12301</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C16">
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3633,13 +3658,13 @@
         <v>12302</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C17">
         <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3647,13 +3672,13 @@
         <v>12303</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C18">
         <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3661,13 +3686,13 @@
         <v>12305</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C19">
         <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,13 +3700,13 @@
         <v>12306</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C20">
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3689,13 +3714,13 @@
         <v>12301</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C21">
         <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Excel_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE99DFC-DDEE-482F-925A-3C3529A15CBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E610D1F-719C-4D98-8AD7-A4832099E8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{C04BA77A-C7D8-4017-BF97-AC89DE27A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="数据表" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="186">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -708,9 +708,6 @@
     <t>Emma</t>
   </si>
   <si>
-    <t>score</t>
-  </si>
-  <si>
     <t>数值-方法1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -752,10 +749,6 @@
     <t>&gt;90</t>
   </si>
   <si>
-    <t>ABC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小A，小B，小C</t>
   </si>
   <si>
@@ -772,6 +765,28 @@
   </si>
   <si>
     <t>=LEN(A1)-LEN(SUBSTITUTE(A1,"???",""))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Zhao</t>
+  </si>
+  <si>
+    <t>Qian</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>zz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1043,14 +1058,17 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1632,7 +1650,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B1" sqref="B1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923FAC08-3012-4A5F-8364-E266CF6BE6E1}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1850,7 +1868,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
         <v>78</v>
@@ -2050,13 +2068,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D25">
         <f>LEN(A25)-LEN(SUBSTITUTE(A25,"???",""))</f>
@@ -2065,10 +2083,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ref="C26" ca="1" si="0">_xlfn.FORMULATEXT(D26)</f>
@@ -2286,7 +2304,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>87</v>
@@ -2298,7 +2316,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" ref="C51" ca="1" si="1">_xlfn.FORMULATEXT(D51)</f>
@@ -2471,14 +2489,14 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="24">
         <f ca="1">NOW()</f>
-        <v>43989.372168518516</v>
+        <v>43990.381483217592</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="23">
         <f ca="1">TODAY()</f>
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -2933,7 +2951,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3240,10 +3258,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363BB2E8-E2AE-4570-975A-221C77F87DE2}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3252,7 +3270,7 @@
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>154</v>
       </c>
@@ -3260,110 +3278,100 @@
         <v>155</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F1" s="33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>12301</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="9">
-        <v>70</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="17">
-        <f>INDEX(A:C,MATCH(E2,B:B,0),1)</f>
-        <v>12301</v>
-      </c>
-      <c r="I2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J2">
-        <f>LOOKUP(9E+307,I:I)</f>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="9" t="str">
+        <f>IFERROR(VLOOKUP(E2,B:C,2,0),"")</f>
+        <v>Wang</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>12302</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="9">
-        <v>55</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="17">
-        <f t="shared" ref="F3:F4" si="0">INDEX(A:C,MATCH(E3,B:B,0),1)</f>
-        <v>12303</v>
-      </c>
-      <c r="I3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3" s="9" t="str">
+        <f t="shared" ref="F3:F4" si="0">IFERROR(VLOOKUP(E3,B:C,2,0),"")</f>
+        <v>Zhao</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>12303</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="9">
-        <v>91</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="C4" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>12306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>12304</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>12305</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="9">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>12306</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="12">
-        <v>95</v>
+      <c r="C7" s="12" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3398,13 +3406,13 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3418,10 +3426,10 @@
         <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>169</v>
       </c>
       <c r="G2" s="5">
         <v>5</v>
@@ -3438,10 +3446,10 @@
         <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="G3" s="5">
         <v>7</v>
@@ -3458,10 +3466,10 @@
         <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>171</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
@@ -3478,10 +3486,10 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>173</v>
+        <v>167</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="G5" s="5">
         <v>2</v>
@@ -3498,10 +3506,10 @@
         <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>174</v>
+        <v>166</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="G6" s="5">
         <v>4</v>
@@ -3518,10 +3526,10 @@
         <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>164</v>
       </c>
       <c r="G7" s="5">
         <v>20</v>
@@ -3538,7 +3546,7 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3552,7 +3560,7 @@
         <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3566,7 +3574,7 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3580,7 +3588,7 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3594,7 +3602,7 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3608,7 +3616,7 @@
         <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3622,7 +3630,7 @@
         <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3636,7 +3644,7 @@
         <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3650,7 +3658,7 @@
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3664,7 +3672,7 @@
         <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3678,7 +3686,7 @@
         <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3692,7 +3700,7 @@
         <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3706,7 +3714,7 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3720,7 +3728,7 @@
         <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
